--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2417.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2417.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.038083349459478</v>
+        <v>1.351589679718018</v>
       </c>
       <c r="B1">
-        <v>2.109902102895194</v>
+        <v>1.532183408737183</v>
       </c>
       <c r="C1">
-        <v>9.47844418933863</v>
+        <v>4.005435466766357</v>
       </c>
       <c r="D1">
-        <v>1.998883552096651</v>
+        <v>3.193935871124268</v>
       </c>
       <c r="E1">
-        <v>0.9977033298444292</v>
+        <v>1.083919286727905</v>
       </c>
     </row>
   </sheetData>
